--- a/timing.xlsx
+++ b/timing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="460" windowWidth="24360" windowHeight="15000"/>
+    <workbookView xWindow="1340" yWindow="460" windowWidth="24260" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -212,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -226,6 +226,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -244,7 +247,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -564,7 +567,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -578,10 +581,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="5"/>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
@@ -597,90 +600,126 @@
         <v>0</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="12">
+        <v>43733</v>
+      </c>
+      <c r="E2" s="12">
+        <v>43733</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="12">
+        <v>43733</v>
+      </c>
+      <c r="E3" s="12">
+        <v>43733</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="12">
+        <v>43733</v>
+      </c>
+      <c r="E4" s="12">
+        <v>43733</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="12">
+        <v>43734</v>
+      </c>
+      <c r="E5" s="12">
+        <v>43734</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="12">
+        <v>43734</v>
+      </c>
+      <c r="E6" s="12">
+        <v>43734</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="12">
+        <v>43735</v>
+      </c>
+      <c r="E7" s="12">
+        <v>43735</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="12">
+        <v>43735</v>
+      </c>
+      <c r="E8" s="12">
+        <v>43735</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="12">
+        <v>43735</v>
+      </c>
+      <c r="E9" s="12">
+        <v>43735</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="12">
+        <v>43735</v>
+      </c>
+      <c r="E10" s="12">
+        <v>43735</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="3"/>
@@ -691,7 +730,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="9"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
@@ -700,7 +739,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="9"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
@@ -709,7 +748,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="9"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
@@ -718,7 +757,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4"/>
-      <c r="C15" s="9"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
@@ -727,7 +766,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="9"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
@@ -736,7 +775,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4"/>
-      <c r="C17" s="9"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
@@ -745,7 +784,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="9"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
@@ -754,7 +793,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="9"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
@@ -763,7 +802,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="9"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
@@ -772,19 +811,12 @@
         <v>8</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="10"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
@@ -801,6 +833,13 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/timing.xlsx
+++ b/timing.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faris/Documents/java_workspace/humber_assignment/java_coffee/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kumuthini\Documents\GitHub\java_coffee\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF23384-5740-41BF-B193-AAD2191EA80E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="460" windowWidth="24260" windowHeight="15540"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="9432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>index.html</t>
   </si>
@@ -99,12 +100,15 @@
   </si>
   <si>
     <t>Nirujan Vaasuthevan</t>
+  </si>
+  <si>
+    <t>12.25 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -212,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -223,31 +227,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -563,28 +570,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.796875" style="2"/>
     <col min="2" max="2" width="18.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.69921875" style="2" customWidth="1"/>
     <col min="4" max="4" width="26.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.83203125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="28.796875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="10.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="12"/>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
@@ -595,228 +602,279 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="4">
         <v>43733</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="4">
         <v>43733</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="12">
+      <c r="D3" s="4">
         <v>43733</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="4">
         <v>43733</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="12">
+      <c r="D4" s="4">
         <v>43733</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="4">
         <v>43733</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="12">
+      <c r="D5" s="4">
         <v>43734</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="4">
         <v>43734</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="12">
+      <c r="D6" s="4">
         <v>43734</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="4">
         <v>43734</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="12">
+      <c r="D7" s="4">
         <v>43735</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="4">
         <v>43735</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="12">
+      <c r="D8" s="4">
         <v>43735</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="4">
         <v>43735</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="12">
+      <c r="D9" s="4">
         <v>43735</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="4">
         <v>43735</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="12">
+      <c r="D10" s="4">
         <v>43735</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="4">
         <v>43735</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="D11" s="13">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.47222222222222227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="D12" s="13">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="D13" s="13">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0.49305555555555558</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="D14" s="13">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="D15" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.50694444444444442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="D16" s="13">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0.51041666666666663</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="5"/>
       <c r="C17" s="10"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="D17" s="13">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0.51388888888888895</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="D18" s="13">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.51736111111111105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="10"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="D19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="D20" s="13">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E20" s="13">
+        <v>0.52430555555555558</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="11"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="D21" s="13">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E21" s="13">
+        <v>0.53125</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
@@ -833,13 +891,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/timing.xlsx
+++ b/timing.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kumuthini\Documents\GitHub\java_coffee\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faris/Documents/java_workspace/humber_assignment/java_coffee/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF23384-5740-41BF-B193-AAD2191EA80E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="9432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1340" yWindow="460" windowWidth="24260" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -108,7 +107,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -216,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -227,12 +226,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -249,12 +251,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -570,28 +566,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.796875" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="2" max="2" width="18.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.69921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="26.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.796875" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.796875" style="2"/>
+    <col min="5" max="5" width="28.83203125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="6"/>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
@@ -602,279 +598,272 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="4">
-        <v>43733</v>
+        <v>0.375</v>
       </c>
       <c r="E2" s="4">
-        <v>43733</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.39583333333333331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="7"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="4">
-        <v>43733</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E3" s="4">
-        <v>43733</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.40277777777777773</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="7"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="4">
-        <v>43733</v>
+        <v>0.40277777777777773</v>
       </c>
       <c r="E4" s="4">
-        <v>43733</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="7"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="4">
-        <v>43734</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="E5" s="4">
-        <v>43734</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="7"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="4">
-        <v>43734</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E6" s="4">
-        <v>43734</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="7"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="4">
-        <v>43735</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="E7" s="4">
-        <v>43735</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.4861111111111111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="7"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="4">
-        <v>43735</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="E8" s="4">
-        <v>43735</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.49305555555555558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="7"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="4">
-        <v>43735</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="E9" s="4">
-        <v>43735</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="8"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="4">
-        <v>43735</v>
+        <v>0.5</v>
       </c>
       <c r="E10" s="4">
-        <v>43735</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.50694444444444442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="4">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="4">
         <v>0.47222222222222227</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="13">
+      <c r="C12" s="11"/>
+      <c r="D12" s="4">
         <v>0.47222222222222227</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="4">
         <v>0.47916666666666669</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="13">
+      <c r="C13" s="11"/>
+      <c r="D13" s="4">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="4">
         <v>0.49305555555555558</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="13">
+      <c r="C14" s="11"/>
+      <c r="D14" s="4">
         <v>0.49305555555555558</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="5"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="13">
+      <c r="C15" s="11"/>
+      <c r="D15" s="4">
         <v>0.5</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="4">
         <v>0.50694444444444442</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="5"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="13">
+      <c r="C16" s="11"/>
+      <c r="D16" s="4">
         <v>0.50694444444444442</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="4">
         <v>0.51041666666666663</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="13">
+      <c r="C17" s="11"/>
+      <c r="D17" s="4">
         <v>0.51041666666666663</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="4">
         <v>0.51388888888888895</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="5"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="13">
+      <c r="C18" s="11"/>
+      <c r="D18" s="4">
         <v>0.51388888888888895</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="4">
         <v>0.51736111111111105</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="5"/>
-      <c r="C19" s="10"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="4">
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="13">
+      <c r="C20" s="11"/>
+      <c r="D20" s="4">
         <v>0.52083333333333337</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="4">
         <v>0.52430555555555558</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="5"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="13">
+      <c r="C21" s="12"/>
+      <c r="D21" s="4">
         <v>0.52777777777777779</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="4">
         <v>0.53125</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
@@ -891,6 +880,13 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/timing.xlsx
+++ b/timing.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="1340" yWindow="460" windowWidth="24260" windowHeight="15540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Phrase 2" sheetId="3" r:id="rId1"/>
+    <sheet name="Phrase 1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
   <si>
     <t>index.html</t>
   </si>
@@ -151,7 +152,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -211,11 +212,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -229,28 +256,40 @@
     <xf numFmtId="18" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -570,7 +609,334 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="16"/>
+    <col min="2" max="2" width="19.33203125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="21" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" style="16" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="4">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.90277777777777779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="4">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="4">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.4861111111111111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.49305555555555558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="4">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.50694444444444442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.47222222222222227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="4">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="4">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.49305555555555558</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="4">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.50694444444444442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="4">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.51041666666666663</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="4">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.51388888888888895</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="4">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.51736111111111105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.52430555555555558</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="4">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.53125</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C8:C21"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -584,10 +950,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="13"/>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
@@ -599,10 +965,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="6"/>
       <c r="C2" s="7" t="s">
         <v>19</v>
       </c>
@@ -614,10 +980,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="8"/>
       <c r="D3" s="4">
         <v>0.39583333333333331</v>
@@ -627,10 +993,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="8"/>
       <c r="D4" s="4">
         <v>0.40277777777777773</v>
@@ -640,10 +1006,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="8"/>
       <c r="D5" s="4">
         <v>0.41666666666666669</v>
@@ -653,10 +1019,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="8"/>
       <c r="D6" s="4">
         <v>0.45833333333333331</v>
@@ -666,10 +1032,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="8"/>
       <c r="D7" s="4">
         <v>0.47916666666666669</v>
@@ -679,10 +1045,10 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="8"/>
       <c r="D8" s="4">
         <v>0.4861111111111111</v>
@@ -692,10 +1058,10 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="8"/>
       <c r="D9" s="4">
         <v>0.49305555555555558</v>
@@ -705,10 +1071,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="9"/>
       <c r="D10" s="4">
         <v>0.5</v>
@@ -718,10 +1084,10 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="10" t="s">
         <v>24</v>
       </c>
@@ -733,10 +1099,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="11"/>
       <c r="D12" s="4">
         <v>0.47222222222222227</v>
@@ -746,10 +1112,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="11"/>
       <c r="D13" s="4">
         <v>0.47916666666666669</v>
@@ -759,10 +1125,10 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="11"/>
       <c r="D14" s="4">
         <v>0.49305555555555558</v>
@@ -772,10 +1138,10 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="11"/>
       <c r="D15" s="4">
         <v>0.5</v>
@@ -785,10 +1151,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="11"/>
       <c r="D16" s="4">
         <v>0.50694444444444442</v>
@@ -798,10 +1164,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="11"/>
       <c r="D17" s="4">
         <v>0.51041666666666663</v>
@@ -811,10 +1177,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="11"/>
       <c r="D18" s="4">
         <v>0.51388888888888895</v>
@@ -824,10 +1190,10 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="11"/>
       <c r="D19" s="3" t="s">
         <v>25</v>
@@ -837,10 +1203,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="11"/>
       <c r="D20" s="4">
         <v>0.52083333333333337</v>
@@ -850,10 +1216,10 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="12"/>
       <c r="D21" s="4">
         <v>0.52777777777777779</v>
@@ -864,6 +1230,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
@@ -880,13 +1253,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/timing.xlsx
+++ b/timing.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faris/Documents/java_workspace/humber_assignment/java_coffee/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kumuthini\Documents\GitHub\java_coffee\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C588F84B-1738-4522-927D-E1F9CE1DDCAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="460" windowWidth="24260" windowHeight="15540"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="9432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Phrase 2" sheetId="3" r:id="rId1"/>
-    <sheet name="Phrase 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Phase 2" sheetId="3" r:id="rId1"/>
+    <sheet name="Phase 1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
   <si>
     <t>index.html</t>
   </si>
@@ -103,12 +104,18 @@
   </si>
   <si>
     <t>12.25 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:35PM </t>
+  </si>
+  <si>
+    <t>1.10 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -259,37 +266,37 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -605,24 +612,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="16"/>
-    <col min="2" max="2" width="19.33203125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="21" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.1640625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="16"/>
+    <col min="1" max="1" width="10.796875" style="6"/>
+    <col min="2" max="2" width="19.296875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="21" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.19921875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="32.69921875" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="10.796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
@@ -637,12 +644,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="4">
@@ -652,12 +659,12 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="4">
         <v>0.39583333333333331</v>
       </c>
@@ -665,12 +672,12 @@
         <v>0.90277777777777779</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="4">
         <v>0.40277777777777773</v>
       </c>
@@ -678,12 +685,12 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="4">
         <v>0.41666666666666669</v>
       </c>
@@ -691,12 +698,12 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="4">
         <v>0.45833333333333331</v>
       </c>
@@ -704,12 +711,12 @@
         <v>0.47916666666666669</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="4">
         <v>0.47916666666666669</v>
       </c>
@@ -717,192 +724,199 @@
         <v>0.4861111111111111</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="4">
-        <v>0.4861111111111111</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E8" s="4">
-        <v>0.49305555555555558</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="11"/>
       <c r="D9" s="4">
-        <v>0.49305555555555558</v>
+        <v>0.5</v>
       </c>
       <c r="E9" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+        <v>0.51388888888888895</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="11"/>
       <c r="D10" s="4">
-        <v>0.5</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="E10" s="4">
-        <v>0.50694444444444442</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+        <v>0.51736111111111105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="11"/>
       <c r="D11" s="4">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.47222222222222227</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="11"/>
       <c r="D12" s="4">
-        <v>0.47222222222222227</v>
+        <v>0.52430555555555558</v>
       </c>
       <c r="E12" s="4">
-        <v>0.47916666666666669</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+        <v>0.52777777777777779</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="11"/>
       <c r="D13" s="4">
-        <v>0.47916666666666669</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="E13" s="4">
-        <v>0.49305555555555558</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="15"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="11"/>
       <c r="D14" s="4">
-        <v>0.49305555555555558</v>
+        <v>0.53125</v>
       </c>
       <c r="E14" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+        <v>0.53472222222222221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="15"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="11"/>
       <c r="D15" s="4">
-        <v>0.5</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="E15" s="4">
-        <v>0.50694444444444442</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+        <v>0.53819444444444442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="15"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="11"/>
       <c r="D16" s="4">
-        <v>0.50694444444444442</v>
+        <v>0.53819444444444442</v>
       </c>
       <c r="E16" s="4">
-        <v>0.51041666666666663</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="15"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="11"/>
       <c r="D17" s="4">
-        <v>0.51041666666666663</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E17" s="4">
-        <v>0.51388888888888895</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+        <v>0.54513888888888895</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="11"/>
       <c r="D18" s="4">
-        <v>0.51388888888888895</v>
+        <v>0.54513888888888895</v>
       </c>
       <c r="E18" s="4">
-        <v>0.51736111111111105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
+        <v>0.54861111111111105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="15"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="11"/>
       <c r="D19" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E19" s="4">
-        <v>0.52083333333333337</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="15"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="11"/>
       <c r="D20" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.5625</v>
       </c>
       <c r="E20" s="4">
-        <v>0.52430555555555558</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
+        <v>0.56944444444444442</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="15"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="12"/>
       <c r="D21" s="4">
-        <v>0.52777777777777779</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="E21" s="4">
-        <v>0.53125</v>
+        <v>0.57638888888888895</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
@@ -917,39 +931,32 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.796875" style="2"/>
     <col min="2" max="2" width="18.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.69921875" style="2" customWidth="1"/>
     <col min="4" max="4" width="26.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.83203125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="28.796875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="10.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
@@ -964,12 +971,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="4">
@@ -979,12 +986,12 @@
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="4">
         <v>0.39583333333333331</v>
       </c>
@@ -992,12 +999,12 @@
         <v>0.40277777777777773</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="8"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="4">
         <v>0.40277777777777773</v>
       </c>
@@ -1005,12 +1012,12 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="8"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="4">
         <v>0.41666666666666669</v>
       </c>
@@ -1018,12 +1025,12 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="8"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="4">
         <v>0.45833333333333331</v>
       </c>
@@ -1031,12 +1038,12 @@
         <v>0.47916666666666669</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="8"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="4">
         <v>0.47916666666666669</v>
       </c>
@@ -1044,12 +1051,12 @@
         <v>0.4861111111111111</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="8"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="4">
         <v>0.4861111111111111</v>
       </c>
@@ -1057,12 +1064,12 @@
         <v>0.49305555555555558</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="8"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="4">
         <v>0.49305555555555558</v>
       </c>
@@ -1070,12 +1077,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="9"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="4">
         <v>0.5</v>
       </c>
@@ -1083,12 +1090,12 @@
         <v>0.50694444444444442</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="4">
@@ -1098,11 +1105,11 @@
         <v>0.47222222222222227</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="11"/>
       <c r="D12" s="4">
         <v>0.47222222222222227</v>
@@ -1111,11 +1118,11 @@
         <v>0.47916666666666669</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="11"/>
       <c r="D13" s="4">
         <v>0.47916666666666669</v>
@@ -1124,11 +1131,11 @@
         <v>0.49305555555555558</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="11"/>
       <c r="D14" s="4">
         <v>0.49305555555555558</v>
@@ -1137,11 +1144,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="11"/>
       <c r="D15" s="4">
         <v>0.5</v>
@@ -1150,11 +1157,11 @@
         <v>0.50694444444444442</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="11"/>
       <c r="D16" s="4">
         <v>0.50694444444444442</v>
@@ -1163,11 +1170,11 @@
         <v>0.51041666666666663</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="11"/>
       <c r="D17" s="4">
         <v>0.51041666666666663</v>
@@ -1176,11 +1183,11 @@
         <v>0.51388888888888895</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="11"/>
       <c r="D18" s="4">
         <v>0.51388888888888895</v>
@@ -1189,11 +1196,11 @@
         <v>0.51736111111111105</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="11"/>
       <c r="D19" s="3" t="s">
         <v>25</v>
@@ -1202,11 +1209,11 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="6"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="11"/>
       <c r="D20" s="4">
         <v>0.52083333333333337</v>
@@ -1215,11 +1222,11 @@
         <v>0.52430555555555558</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="12"/>
       <c r="D21" s="4">
         <v>0.52777777777777779</v>
@@ -1230,13 +1237,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
@@ -1253,6 +1253,13 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
